--- a/biology/Biochimie/Gelsoline/Gelsoline.xlsx
+++ b/biology/Biochimie/Gelsoline/Gelsoline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gelsoline est une protéine (82kDa) cytosolique. Activée par la présence d'ions calcium en forte concentration, elle est capable de se fixer aux filaments d'actine et de créer une dislocation locale de ceux-ci. 
 De plus, elle reste fixée à l'extrémité (+) du microfilament (extrémité de polymérisation) et évite ainsi la re-polymérisation rapide de l'actine.
